--- a/Funciones - Mapas de Karnaugh.xlsx
+++ b/Funciones - Mapas de Karnaugh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\OneDrive\U\VACAS JUNIO 2024\0964 Organizacion Computacional\Laboratorio\Practica1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\OneDrive\U\VACAS JUNIO 2024\0964 Organizacion Computacional\Laboratorio\P1_ORGA_G2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5755FA94-3C74-4E1A-9E46-5AB2B3A319DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA0CEE1-C327-4E12-A127-A40C8B0C8CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9960" xr2:uid="{0F0CAC06-0AE1-43AF-86E3-D288ADF9CD72}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{0F0CAC06-0AE1-43AF-86E3-D288ADF9CD72}"/>
   </bookViews>
   <sheets>
     <sheet name="NOMBRES" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="41">
   <si>
     <t>a</t>
   </si>
@@ -155,6 +155,15 @@
   </si>
   <si>
     <t>placa</t>
+  </si>
+  <si>
+    <t>JOSSELINE</t>
+  </si>
+  <si>
+    <t>EVELYN</t>
+  </si>
+  <si>
+    <t>MANUEL</t>
   </si>
 </sst>
 </file>
@@ -535,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -624,6 +633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -643,12 +653,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1289,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DE5900-A6AF-4B33-AD7E-B6FC0FF332B9}">
   <dimension ref="A1:AE27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AH12" sqref="AH12"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1330,41 +1342,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="33"/>
       <c r="P1" s="2"/>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="33"/>
     </row>
     <row r="2" spans="1:31" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
@@ -1628,41 +1640,41 @@
       <c r="AE7" s="3"/>
     </row>
     <row r="8" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="33"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="30" t="s">
+      <c r="Q8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="33"/>
     </row>
     <row r="9" spans="1:31" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
@@ -1999,8 +2011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D56DBA-8A5A-4787-B9BA-A2ACD50E85B0}">
   <dimension ref="B1:O21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2010,16 +2022,16 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
@@ -2766,20 +2778,26 @@
         <v>0</v>
       </c>
       <c r="O19" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H20" s="36" t="s">
+      <c r="H20" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="38" t="s">
+      <c r="I20" s="38"/>
+      <c r="J20" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="38"/>
+      <c r="M20" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" s="38"/>
+      <c r="O20" s="30" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Funciones - Mapas de Karnaugh.xlsx
+++ b/Funciones - Mapas de Karnaugh.xlsx
@@ -8,17 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\OneDrive\U\VACAS JUNIO 2024\0964 Organizacion Computacional\Laboratorio\P1_ORGA_G2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA0CEE1-C327-4E12-A127-A40C8B0C8CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCB7BD7-3ACF-4D23-9EAA-CA6E94BD9F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{0F0CAC06-0AE1-43AF-86E3-D288ADF9CD72}"/>
   </bookViews>
   <sheets>
     <sheet name="NOMBRES" sheetId="1" r:id="rId1"/>
     <sheet name="FUNCIONES" sheetId="2" r:id="rId2"/>
-    <sheet name="AB" sheetId="3" r:id="rId3"/>
-    <sheet name="C" sheetId="4" r:id="rId4"/>
-    <sheet name="DE" sheetId="5" r:id="rId5"/>
-    <sheet name="FG" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -634,6 +630,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -656,9 +655,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1342,41 +1338,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="34"/>
       <c r="P1" s="2"/>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="34"/>
     </row>
     <row r="2" spans="1:31" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
@@ -1640,41 +1636,41 @@
       <c r="AE7" s="3"/>
     </row>
     <row r="8" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="34"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="31" t="s">
+      <c r="Q8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="32"/>
-      <c r="AC8" s="32"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="34"/>
     </row>
     <row r="9" spans="1:31" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
@@ -2022,16 +2018,16 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
@@ -2782,21 +2778,21 @@
       </c>
     </row>
     <row r="20" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H20" s="37" t="s">
+      <c r="H20" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39" t="s">
+      <c r="I20" s="39"/>
+      <c r="J20" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="37" t="s">
+      <c r="K20" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="L20" s="38"/>
-      <c r="M20" s="37" t="s">
+      <c r="L20" s="39"/>
+      <c r="M20" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="N20" s="38"/>
+      <c r="N20" s="39"/>
       <c r="O20" s="30" t="s">
         <v>35</v>
       </c>
@@ -2818,52 +2814,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3092D03A-00DC-47EE-BBE7-F45A26844039}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BE08C8-648C-4D74-8B24-3B7C779159B1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C90167-6019-4EFE-8EF2-B2E4FD5B0039}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD06AEDD-A0D5-4E85-97CC-88712E77F918}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>